--- a/Workbench/Diccionario de datos.xlsx
+++ b/Workbench/Diccionario de datos.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="111">
   <si>
     <t>Campo</t>
   </si>
@@ -78,6 +78,288 @@
   </si>
   <si>
     <t>Paises_idPaises</t>
+  </si>
+  <si>
+    <t>Representantes_idRepresentante</t>
+  </si>
+  <si>
+    <t>Representantes_tipoDoc</t>
+  </si>
+  <si>
+    <t>BIGINT</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>Representante</t>
+  </si>
+  <si>
+    <t>idRepresentante</t>
+  </si>
+  <si>
+    <t>No Nulo?</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>telefono</t>
+  </si>
+  <si>
+    <t>tipoDoc</t>
+  </si>
+  <si>
+    <t>Informacion_Contacto</t>
+  </si>
+  <si>
+    <t>Telefono</t>
+  </si>
+  <si>
+    <t>Direccion</t>
+  </si>
+  <si>
+    <t>Universidades</t>
+  </si>
+  <si>
+    <t>idUniversidades</t>
+  </si>
+  <si>
+    <t>Informacion_Contacto_Telefono</t>
+  </si>
+  <si>
+    <t>Participacion</t>
+  </si>
+  <si>
+    <t>Eventos_idEventos</t>
+  </si>
+  <si>
+    <t>Artistas_idArtistas</t>
+  </si>
+  <si>
+    <t>PK, FK</t>
+  </si>
+  <si>
+    <t>Administradores</t>
+  </si>
+  <si>
+    <t>idAdministradores</t>
+  </si>
+  <si>
+    <t>Usuario</t>
+  </si>
+  <si>
+    <t>Contraseña</t>
+  </si>
+  <si>
+    <t>Eventos</t>
+  </si>
+  <si>
+    <t>idEventos</t>
+  </si>
+  <si>
+    <t>horaInicio</t>
+  </si>
+  <si>
+    <t>horaFinalizacion</t>
+  </si>
+  <si>
+    <t>fecha</t>
+  </si>
+  <si>
+    <t>descripcion</t>
+  </si>
+  <si>
+    <t>Escenarios_idEscenarios</t>
+  </si>
+  <si>
+    <t>Universidades_idUniversidades</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>MEDIUMINT</t>
+  </si>
+  <si>
+    <t>Puntos_de_Venta</t>
+  </si>
+  <si>
+    <t>idPuntos_de_Venta</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>Boletas</t>
+  </si>
+  <si>
+    <t>idBoletas</t>
+  </si>
+  <si>
+    <t>localidad</t>
+  </si>
+  <si>
+    <t>valor</t>
+  </si>
+  <si>
+    <t>Puntos_de_Venta_idPuntos_de_Venta</t>
+  </si>
+  <si>
+    <t>Disponible</t>
+  </si>
+  <si>
+    <t>Escenarios</t>
+  </si>
+  <si>
+    <t>idEscenarios</t>
+  </si>
+  <si>
+    <t>capacidad</t>
+  </si>
+  <si>
+    <t>SMALLINT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tipo de evento que se realizara</t>
+  </si>
+  <si>
+    <t>Nombre del evento a realizar</t>
+  </si>
+  <si>
+    <t>Identificación de los paises</t>
+  </si>
+  <si>
+    <t>Nombre de los paises</t>
+  </si>
+  <si>
+    <t>Identificacion unica del artista</t>
+  </si>
+  <si>
+    <t>Nombre del artista</t>
+  </si>
+  <si>
+    <t>Identificación unica de los representantes</t>
+  </si>
+  <si>
+    <t>Nombre del representante</t>
+  </si>
+  <si>
+    <t>Telefono del representante</t>
+  </si>
+  <si>
+    <t>Tipo de documento del representante</t>
+  </si>
+  <si>
+    <t>Identificacion unica de los puntos de venta</t>
+  </si>
+  <si>
+    <t>Nombre de los puntos de venta</t>
+  </si>
+  <si>
+    <t>Identificacion de las boletas(Consecutivo)</t>
+  </si>
+  <si>
+    <t>Localidad de las boletas(Platea, Balcon, VIP,General)</t>
+  </si>
+  <si>
+    <t>Precio de las boletas</t>
+  </si>
+  <si>
+    <t>Foreign key de tipo_artista_evento</t>
+  </si>
+  <si>
+    <t>Foreign key de paises</t>
+  </si>
+  <si>
+    <t>Foreign key de representante</t>
+  </si>
+  <si>
+    <t>Foreign key de representante tipo de documento</t>
+  </si>
+  <si>
+    <t>Foreign key de Informacion_contacto</t>
+  </si>
+  <si>
+    <t>Foreign key de eventos</t>
+  </si>
+  <si>
+    <t>Foreign key Puntos de venta</t>
+  </si>
+  <si>
+    <t>Disponibilidad de la boletas</t>
+  </si>
+  <si>
+    <t>Telefono de los contactos</t>
+  </si>
+  <si>
+    <t>Direccio de los contactos</t>
+  </si>
+  <si>
+    <t>Identificacion de las universidades</t>
+  </si>
+  <si>
+    <t>Nombre de las universidades</t>
+  </si>
+  <si>
+    <t>Foreign key de informacion_contacto_telefono</t>
+  </si>
+  <si>
+    <t>Foreign key de artistas</t>
+  </si>
+  <si>
+    <t>Identificacion de los administradores</t>
+  </si>
+  <si>
+    <t>Usuario de los administradores</t>
+  </si>
+  <si>
+    <t>Contraseña de los administradores</t>
+  </si>
+  <si>
+    <t>Identificacion de los eventos</t>
+  </si>
+  <si>
+    <t>Nombre de los eventos</t>
+  </si>
+  <si>
+    <t>Hora de inicio de los eventos</t>
+  </si>
+  <si>
+    <t>Hora de fin de los eventos</t>
+  </si>
+  <si>
+    <t>Fecha del evento</t>
+  </si>
+  <si>
+    <t>Descripcion del evento</t>
+  </si>
+  <si>
+    <t>Foreign Key de Escenarios</t>
+  </si>
+  <si>
+    <t>Foreign Key de tipo_artista_evento</t>
+  </si>
+  <si>
+    <t>Foreign Key de universidades</t>
+  </si>
+  <si>
+    <t>Identificacion de los escenarios</t>
+  </si>
+  <si>
+    <t>Nombre de los escenarios</t>
+  </si>
+  <si>
+    <t>Capacidad de personas para el escenario</t>
+  </si>
+  <si>
+    <t>Foreign key de informacion_Contacto</t>
   </si>
 </sst>
 </file>
@@ -145,13 +427,13 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,286 +711,1193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="45.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="H1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="1">
+        <v>20</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="H6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="H7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="28" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="1">
+        <v>3</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="28" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="C9" s="1">
+        <v>45</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="1">
+        <v>45</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="B12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="28" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="H12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C14" s="1">
+        <v>45</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1">
         <v>3</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="1">
+        <v>3</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" ht="28" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="L19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="1">
+        <v>45</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" s="1">
+        <v>45</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C23" s="1">
         <v>45</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:6" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="I24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J24" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="K24" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="L24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="2" t="s">
+    <row r="25" spans="1:13" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J26" s="1">
+        <v>45</v>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="H27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="H28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J28" s="1">
+        <v>3</v>
+      </c>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="E29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="1">
+        <v>45</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1</v>
+      </c>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J31" s="1">
+        <v>3</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="H33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+    </row>
+    <row r="36" spans="1:13" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="1">
+        <v>45</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="1">
+        <v>3</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="I38" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="2">
+      <c r="J38" s="1">
         <v>45</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="2">
-        <v>3</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="K38" s="1"/>
+      <c r="L38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="2">
-        <v>45</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="2">
-        <v>3</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="2">
-        <v>45</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="L40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="12">
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="H35:J35"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H17:J17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
